--- a/public_html/ADG/alerts.xlsx
+++ b/public_html/ADG/alerts.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/public_html/ADG/alerts.xlsx
+++ b/public_html/ADG/alerts.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,6 +445,30 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>27</v>
+      </c>
+      <c r="B3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>28</v>
+      </c>
+      <c r="B4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>31</v>
+      </c>
+      <c r="B5" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/public_html/ADG/alerts.xlsx
+++ b/public_html/ADG/alerts.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,28 +446,10 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>5</v>
+      <c r="A2" t="inlineStr"/>
+      <c r="B2" t="n">
+        <v>14</v>
       </c>
-      <c r="B2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>27</v>
-      </c>
-      <c r="B3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>28</v>
-      </c>
-      <c r="B4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>31</v>
-      </c>
-      <c r="B5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/public_html/ADG/alerts.xlsx
+++ b/public_html/ADG/alerts.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,12 +445,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr"/>
-      <c r="B2" t="n">
-        <v>14</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/public_html/ADG/alerts.xlsx
+++ b/public_html/ADG/alerts.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,10 +446,18 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr"/>
+      <c r="A2" t="n">
+        <v>17</v>
+      </c>
       <c r="B2" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>20</v>
+      </c>
+      <c r="B3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/public_html/ADG/alerts.xlsx
+++ b/public_html/ADG/alerts.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,6 +445,12 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr"/>
+      <c r="B2" t="n">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/public_html/ADG/alerts.xlsx
+++ b/public_html/ADG/alerts.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,17 +447,23 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="B2" t="n">
-        <v>15</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="B3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>50</v>
+      </c>
+      <c r="B4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/public_html/ADG/alerts.xlsx
+++ b/public_html/ADG/alerts.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,26 +445,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>46</v>
-      </c>
-      <c r="B2" t="n">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>49</v>
-      </c>
-      <c r="B3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>50</v>
-      </c>
-      <c r="B4" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/public_html/ADG/alerts.xlsx
+++ b/public_html/ADG/alerts.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,6 +445,24 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>7</v>
+      </c>
+      <c r="B3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>9</v>
+      </c>
+      <c r="B4" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/public_html/ADG/alerts.xlsx
+++ b/public_html/ADG/alerts.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,24 +445,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>7</v>
-      </c>
-      <c r="B3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>9</v>
-      </c>
-      <c r="B4" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/public_html/ADG/alerts.xlsx
+++ b/public_html/ADG/alerts.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,7 +449,9 @@
       <c r="A2" t="n">
         <v>5</v>
       </c>
-      <c r="B2" t="inlineStr"/>
+      <c r="B2" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -457,12 +459,6 @@
       </c>
       <c r="B3" t="inlineStr"/>
     </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>9</v>
-      </c>
-      <c r="B4" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/public_html/ADG/alerts.xlsx
+++ b/public_html/ADG/alerts.xlsx
@@ -449,9 +449,7 @@
       <c r="A2" t="n">
         <v>5</v>
       </c>
-      <c r="B2" t="n">
-        <v>3</v>
-      </c>
+      <c r="B2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">

--- a/public_html/ADG/alerts.xlsx
+++ b/public_html/ADG/alerts.xlsx
@@ -449,7 +449,9 @@
       <c r="A2" t="n">
         <v>5</v>
       </c>
-      <c r="B2" t="inlineStr"/>
+      <c r="B2" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">

--- a/public_html/ADG/alerts.xlsx
+++ b/public_html/ADG/alerts.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,15 +449,7 @@
       <c r="A2" t="n">
         <v>5</v>
       </c>
-      <c r="B2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>7</v>
-      </c>
-      <c r="B3" t="inlineStr"/>
+      <c r="B2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/public_html/ADG/alerts.xlsx
+++ b/public_html/ADG/alerts.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,9 +447,17 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
-      <c r="B2" t="inlineStr"/>
+      <c r="B2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>12</v>
+      </c>
+      <c r="B3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/public_html/ADG/alerts.xlsx
+++ b/public_html/ADG/alerts.xlsx
@@ -447,15 +447,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
-      <c r="B2" t="n">
-        <v>8</v>
-      </c>
+      <c r="B2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B3" t="inlineStr"/>
     </row>

--- a/public_html/ADG/alerts.xlsx
+++ b/public_html/ADG/alerts.xlsx
@@ -447,13 +447,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="B2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="B3" t="inlineStr"/>
     </row>

--- a/public_html/ADG/alerts.xlsx
+++ b/public_html/ADG/alerts.xlsx
@@ -447,13 +447,15 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
-      <c r="B2" t="inlineStr"/>
+      <c r="B2" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="B3" t="inlineStr"/>
     </row>

--- a/public_html/ADG/alerts.xlsx
+++ b/public_html/ADG/alerts.xlsx
@@ -449,9 +449,7 @@
       <c r="A2" t="n">
         <v>20</v>
       </c>
-      <c r="B2" t="n">
-        <v>18</v>
-      </c>
+      <c r="B2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
